--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -92994,7 +92994,7 @@
       </c>
       <c r="C5445" t="inlineStr">
         <is>
-          <t>1.0161418571100704</t>
+          <t>1.0318382038164697</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5446"/>
+  <dimension ref="A1:C5447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93011,7 +93011,24 @@
       </c>
       <c r="C5446" t="inlineStr">
         <is>
-          <t>1.0326531244736104</t>
+          <t>1.0127407148633423</t>
+        </is>
+      </c>
+    </row>
+    <row r="5447">
+      <c r="A5447" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B5447" t="inlineStr">
+        <is>
+          <t>1752537600</t>
+        </is>
+      </c>
+      <c r="C5447" t="inlineStr">
+        <is>
+          <t>1.011956899368989</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5447"/>
+  <dimension ref="A1:C5448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93032,6 +93032,23 @@
         </is>
       </c>
     </row>
+    <row r="5448">
+      <c r="A5448" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B5448" t="inlineStr">
+        <is>
+          <t>1752624000</t>
+        </is>
+      </c>
+      <c r="C5448" t="inlineStr">
+        <is>
+          <t>1.0617880893459912</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93028,7 +93028,7 @@
       </c>
       <c r="C5447" t="inlineStr">
         <is>
-          <t>1.011956899368989</t>
+          <t>1.0625406203069134</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5448"/>
+  <dimension ref="A1:C5449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93049,6 +93049,23 @@
         </is>
       </c>
     </row>
+    <row r="5449">
+      <c r="A5449" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B5449" t="inlineStr">
+        <is>
+          <t>1752710400</t>
+        </is>
+      </c>
+      <c r="C5449" t="inlineStr">
+        <is>
+          <t>1.0320289766418342</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93045,7 +93045,7 @@
       </c>
       <c r="C5448" t="inlineStr">
         <is>
-          <t>1.0617880893459912</t>
+          <t>1.0323874898204692</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5449"/>
+  <dimension ref="A1:C5451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93062,7 +93062,41 @@
       </c>
       <c r="C5449" t="inlineStr">
         <is>
-          <t>1.0320289766418342</t>
+          <t>1.0184768695922157</t>
+        </is>
+      </c>
+    </row>
+    <row r="5450">
+      <c r="A5450" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B5450" t="inlineStr">
+        <is>
+          <t>1752796800</t>
+        </is>
+      </c>
+      <c r="C5450" t="inlineStr">
+        <is>
+          <t>1.0243689023401705</t>
+        </is>
+      </c>
+    </row>
+    <row r="5451">
+      <c r="A5451" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B5451" t="inlineStr">
+        <is>
+          <t>1752883200</t>
+        </is>
+      </c>
+      <c r="C5451" t="inlineStr">
+        <is>
+          <t>1.0246481957926996</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5451"/>
+  <dimension ref="A1:C5452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93100,6 +93100,23 @@
         </is>
       </c>
     </row>
+    <row r="5452">
+      <c r="A5452" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B5452" t="inlineStr">
+        <is>
+          <t>1752969600</t>
+        </is>
+      </c>
+      <c r="C5452" t="inlineStr">
+        <is>
+          <t>1.010793249229456</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93096,7 +93096,7 @@
       </c>
       <c r="C5451" t="inlineStr">
         <is>
-          <t>1.0246481957926996</t>
+          <t>1.0099419329337707</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5452"/>
+  <dimension ref="A1:C5453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93117,6 +93117,23 @@
         </is>
       </c>
     </row>
+    <row r="5453">
+      <c r="A5453" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B5453" t="inlineStr">
+        <is>
+          <t>1753056000</t>
+        </is>
+      </c>
+      <c r="C5453" t="inlineStr">
+        <is>
+          <t>1.0193127233270585</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93113,7 +93113,7 @@
       </c>
       <c r="C5452" t="inlineStr">
         <is>
-          <t>1.010793249229456</t>
+          <t>1.017352954374993</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5453"/>
+  <dimension ref="A1:C5454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93134,6 +93134,23 @@
         </is>
       </c>
     </row>
+    <row r="5454">
+      <c r="A5454" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B5454" t="inlineStr">
+        <is>
+          <t>1753142400</t>
+        </is>
+      </c>
+      <c r="C5454" t="inlineStr">
+        <is>
+          <t>1.0305921160900606</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93130,7 +93130,7 @@
       </c>
       <c r="C5453" t="inlineStr">
         <is>
-          <t>1.0193127233270585</t>
+          <t>1.0315829485740526</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5454"/>
+  <dimension ref="A1:C5455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93147,7 +93147,24 @@
       </c>
       <c r="C5454" t="inlineStr">
         <is>
-          <t>1.0305921160900606</t>
+          <t>1.0288765486885896</t>
+        </is>
+      </c>
+    </row>
+    <row r="5455">
+      <c r="A5455" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B5455" t="inlineStr">
+        <is>
+          <t>1753228800</t>
+        </is>
+      </c>
+      <c r="C5455" t="inlineStr">
+        <is>
+          <t>1.0294560466977367</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5455"/>
+  <dimension ref="A1:C5456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93168,6 +93168,23 @@
         </is>
       </c>
     </row>
+    <row r="5456">
+      <c r="A5456" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B5456" t="inlineStr">
+        <is>
+          <t>1753315200</t>
+        </is>
+      </c>
+      <c r="C5456" t="inlineStr">
+        <is>
+          <t>1.0191313189010591</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5456"/>
+  <dimension ref="A1:C5458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93164,7 +93164,7 @@
       </c>
       <c r="C5455" t="inlineStr">
         <is>
-          <t>1.0294560466977367</t>
+          <t>1.0185805914409294</t>
         </is>
       </c>
     </row>
@@ -93181,7 +93181,41 @@
       </c>
       <c r="C5456" t="inlineStr">
         <is>
-          <t>1.0191313189010591</t>
+          <t>1.0163029857459775</t>
+        </is>
+      </c>
+    </row>
+    <row r="5457">
+      <c r="A5457" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B5457" t="inlineStr">
+        <is>
+          <t>1753401600</t>
+        </is>
+      </c>
+      <c r="C5457" t="inlineStr">
+        <is>
+          <t>1.0103535949692888</t>
+        </is>
+      </c>
+    </row>
+    <row r="5458">
+      <c r="A5458" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B5458" t="inlineStr">
+        <is>
+          <t>1753488000</t>
+        </is>
+      </c>
+      <c r="C5458" t="inlineStr">
+        <is>
+          <t>1.0098902288624283</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5458"/>
+  <dimension ref="A1:C5459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93219,6 +93219,23 @@
         </is>
       </c>
     </row>
+    <row r="5459">
+      <c r="A5459" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B5459" t="inlineStr">
+        <is>
+          <t>1753574400</t>
+        </is>
+      </c>
+      <c r="C5459" t="inlineStr">
+        <is>
+          <t>1.0104211634854192</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93215,7 +93215,7 @@
       </c>
       <c r="C5458" t="inlineStr">
         <is>
-          <t>1.0098902288624283</t>
+          <t>1.0107469169264744</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5459"/>
+  <dimension ref="A1:C5460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93236,6 +93236,23 @@
         </is>
       </c>
     </row>
+    <row r="5460">
+      <c r="A5460" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B5460" t="inlineStr">
+        <is>
+          <t>1753660800</t>
+        </is>
+      </c>
+      <c r="C5460" t="inlineStr">
+        <is>
+          <t>1.0174640244048179</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93232,7 +93232,7 @@
       </c>
       <c r="C5459" t="inlineStr">
         <is>
-          <t>1.0104211634854192</t>
+          <t>1.016637189556947</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5460"/>
+  <dimension ref="A1:C5461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93253,6 +93253,23 @@
         </is>
       </c>
     </row>
+    <row r="5461">
+      <c r="A5461" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B5461" t="inlineStr">
+        <is>
+          <t>1753747200</t>
+        </is>
+      </c>
+      <c r="C5461" t="inlineStr">
+        <is>
+          <t>1.0269343923490835</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93249,7 +93249,7 @@
       </c>
       <c r="C5460" t="inlineStr">
         <is>
-          <t>1.0174640244048179</t>
+          <t>1.0273644229305987</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5461"/>
+  <dimension ref="A1:C5462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93270,6 +93270,23 @@
         </is>
       </c>
     </row>
+    <row r="5462">
+      <c r="A5462" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B5462" t="inlineStr">
+        <is>
+          <t>1753833600</t>
+        </is>
+      </c>
+      <c r="C5462" t="inlineStr">
+        <is>
+          <t>1.0187348523287567</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93266,7 +93266,7 @@
       </c>
       <c r="C5461" t="inlineStr">
         <is>
-          <t>1.0269343923490835</t>
+          <t>1.0186541591124088</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5462"/>
+  <dimension ref="A1:C5463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93287,6 +93287,23 @@
         </is>
       </c>
     </row>
+    <row r="5463">
+      <c r="A5463" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B5463" t="inlineStr">
+        <is>
+          <t>1753920000</t>
+        </is>
+      </c>
+      <c r="C5463" t="inlineStr">
+        <is>
+          <t>1.0096687740213122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5463"/>
+  <dimension ref="A1:C5464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93283,7 +93283,7 @@
       </c>
       <c r="C5462" t="inlineStr">
         <is>
-          <t>1.0187348523287567</t>
+          <t>1.0107245428491942</t>
         </is>
       </c>
     </row>
@@ -93301,6 +93301,23 @@
       <c r="C5463" t="inlineStr">
         <is>
           <t>1.0096687740213122</t>
+        </is>
+      </c>
+    </row>
+    <row r="5464">
+      <c r="A5464" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B5464" t="inlineStr">
+        <is>
+          <t>1754006400</t>
+        </is>
+      </c>
+      <c r="C5464" t="inlineStr">
+        <is>
+          <t>1.003664749553697</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5464"/>
+  <dimension ref="A1:C5465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93300,7 +93300,7 @@
       </c>
       <c r="C5463" t="inlineStr">
         <is>
-          <t>1.0096687740213122</t>
+          <t>1.005062447337803</t>
         </is>
       </c>
     </row>
@@ -93317,7 +93317,24 @@
       </c>
       <c r="C5464" t="inlineStr">
         <is>
-          <t>1.003664749553697</t>
+          <t>1.0027767073265974</t>
+        </is>
+      </c>
+    </row>
+    <row r="5465">
+      <c r="A5465" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B5465" t="inlineStr">
+        <is>
+          <t>1754092800</t>
+        </is>
+      </c>
+      <c r="C5465" t="inlineStr">
+        <is>
+          <t>1.002342084267282</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5465"/>
+  <dimension ref="A1:C5466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93338,6 +93338,23 @@
         </is>
       </c>
     </row>
+    <row r="5466">
+      <c r="A5466" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B5466" t="inlineStr">
+        <is>
+          <t>1754179200</t>
+        </is>
+      </c>
+      <c r="C5466" t="inlineStr">
+        <is>
+          <t>1.013329891776731</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5466"/>
+  <dimension ref="A1:C5468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93334,7 +93334,7 @@
       </c>
       <c r="C5465" t="inlineStr">
         <is>
-          <t>1.002342084267282</t>
+          <t>1.0133801399531848</t>
         </is>
       </c>
     </row>
@@ -93351,7 +93351,41 @@
       </c>
       <c r="C5466" t="inlineStr">
         <is>
-          <t>1.013329891776731</t>
+          <t>1.0081365973264897</t>
+        </is>
+      </c>
+    </row>
+    <row r="5467">
+      <c r="A5467" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B5467" t="inlineStr">
+        <is>
+          <t>1754265600</t>
+        </is>
+      </c>
+      <c r="C5467" t="inlineStr">
+        <is>
+          <t>1.0076551516261139</t>
+        </is>
+      </c>
+    </row>
+    <row r="5468">
+      <c r="A5468" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B5468" t="inlineStr">
+        <is>
+          <t>1754352000</t>
+        </is>
+      </c>
+      <c r="C5468" t="inlineStr">
+        <is>
+          <t>1.0103313771986766</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93368,7 +93368,7 @@
       </c>
       <c r="C5467" t="inlineStr">
         <is>
-          <t>1.0076551516261139</t>
+          <t>1.0094652643292705</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5468"/>
+  <dimension ref="A1:C5469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93389,6 +93389,23 @@
         </is>
       </c>
     </row>
+    <row r="5469">
+      <c r="A5469" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B5469" t="inlineStr">
+        <is>
+          <t>1754438400</t>
+        </is>
+      </c>
+      <c r="C5469" t="inlineStr">
+        <is>
+          <t>1.0046677535240869</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93385,7 +93385,7 @@
       </c>
       <c r="C5468" t="inlineStr">
         <is>
-          <t>1.0103313771986766</t>
+          <t>1.0049230699024678</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5469"/>
+  <dimension ref="A1:C5470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93406,6 +93406,23 @@
         </is>
       </c>
     </row>
+    <row r="5470">
+      <c r="A5470" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B5470" t="inlineStr">
+        <is>
+          <t>1754524800</t>
+        </is>
+      </c>
+      <c r="C5470" t="inlineStr">
+        <is>
+          <t>1.0202822146794397</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93402,7 +93402,7 @@
       </c>
       <c r="C5469" t="inlineStr">
         <is>
-          <t>1.0046677535240869</t>
+          <t>1.0202650800535997</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5470"/>
+  <dimension ref="A1:C5471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93423,6 +93423,23 @@
         </is>
       </c>
     </row>
+    <row r="5471">
+      <c r="A5471" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B5471" t="inlineStr">
+        <is>
+          <t>1754611200</t>
+        </is>
+      </c>
+      <c r="C5471" t="inlineStr">
+        <is>
+          <t>1.0153899102596198</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -93419,7 +93419,7 @@
       </c>
       <c r="C5470" t="inlineStr">
         <is>
-          <t>1.0202822146794397</t>
+          <t>1.014406558209858</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5471"/>
+  <dimension ref="A1:C5472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93440,6 +93440,23 @@
         </is>
       </c>
     </row>
+    <row r="5472">
+      <c r="A5472" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B5472" t="inlineStr">
+        <is>
+          <t>1754697600</t>
+        </is>
+      </c>
+      <c r="C5472" t="inlineStr">
+        <is>
+          <t>1.0068324696742006</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5472"/>
+  <dimension ref="A1:C5474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93436,7 +93436,7 @@
       </c>
       <c r="C5471" t="inlineStr">
         <is>
-          <t>1.0153899102596198</t>
+          <t>1.0066342051663983</t>
         </is>
       </c>
     </row>
@@ -93453,7 +93453,41 @@
       </c>
       <c r="C5472" t="inlineStr">
         <is>
-          <t>1.0068324696742006</t>
+          <t>1.010445920322055</t>
+        </is>
+      </c>
+    </row>
+    <row r="5473">
+      <c r="A5473" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B5473" t="inlineStr">
+        <is>
+          <t>1754784000</t>
+        </is>
+      </c>
+      <c r="C5473" t="inlineStr">
+        <is>
+          <t>1.0098739758357471</t>
+        </is>
+      </c>
+    </row>
+    <row r="5474">
+      <c r="A5474" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B5474" t="inlineStr">
+        <is>
+          <t>1754870400</t>
+        </is>
+      </c>
+      <c r="C5474" t="inlineStr">
+        <is>
+          <t>1.012854819272484</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -93470,7 +93470,7 @@
       </c>
       <c r="C5473" t="inlineStr">
         <is>
-          <t>1.0098739758357471</t>
+          <t>1.014543109377438</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5474"/>
+  <dimension ref="A1:C5475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93487,7 +93487,24 @@
       </c>
       <c r="C5474" t="inlineStr">
         <is>
-          <t>1.012854819272484</t>
+          <t>1.0132719252315636</t>
+        </is>
+      </c>
+    </row>
+    <row r="5475">
+      <c r="A5475" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B5475" t="inlineStr">
+        <is>
+          <t>1754956800</t>
+        </is>
+      </c>
+      <c r="C5475" t="inlineStr">
+        <is>
+          <t>1.0145476818972092</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5475"/>
+  <dimension ref="A1:C5476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93504,7 +93504,24 @@
       </c>
       <c r="C5475" t="inlineStr">
         <is>
-          <t>1.0145476818972092</t>
+          <t>1.0179009253528286</t>
+        </is>
+      </c>
+    </row>
+    <row r="5476">
+      <c r="A5476" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B5476" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C5476" t="inlineStr">
+        <is>
+          <t>1.018935209664718</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5476"/>
+  <dimension ref="A1:C5480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93521,7 +93521,75 @@
       </c>
       <c r="C5476" t="inlineStr">
         <is>
-          <t>1.018935209664718</t>
+          <t>1.0201489427472274</t>
+        </is>
+      </c>
+    </row>
+    <row r="5477">
+      <c r="A5477" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B5477" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C5477" t="inlineStr">
+        <is>
+          <t>1.0095262702561452</t>
+        </is>
+      </c>
+    </row>
+    <row r="5478">
+      <c r="A5478" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B5478" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C5478" t="inlineStr">
+        <is>
+          <t>1.0733166641426646</t>
+        </is>
+      </c>
+    </row>
+    <row r="5479">
+      <c r="A5479" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B5479" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C5479" t="inlineStr">
+        <is>
+          <t>1.0060835021507581</t>
+        </is>
+      </c>
+    </row>
+    <row r="5480">
+      <c r="A5480" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B5480" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C5480" t="inlineStr">
+        <is>
+          <t>1.005772344725436</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5480"/>
+  <dimension ref="A1:C5481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93589,7 +93589,24 @@
       </c>
       <c r="C5480" t="inlineStr">
         <is>
-          <t>1.005772344725436</t>
+          <t>1.0024629969640904</t>
+        </is>
+      </c>
+    </row>
+    <row r="5481">
+      <c r="A5481" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B5481" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C5481" t="inlineStr">
+        <is>
+          <t>1.0001363942199473</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5481"/>
+  <dimension ref="A1:C5482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93606,7 +93606,24 @@
       </c>
       <c r="C5481" t="inlineStr">
         <is>
-          <t>1.0001363942199473</t>
+          <t>1.0141378102059704</t>
+        </is>
+      </c>
+    </row>
+    <row r="5482">
+      <c r="A5482" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B5482" t="inlineStr">
+        <is>
+          <t>1755561600</t>
+        </is>
+      </c>
+      <c r="C5482" t="inlineStr">
+        <is>
+          <t>1.0167152779635766</t>
         </is>
       </c>
     </row>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5501"/>
+  <dimension ref="A1:B5503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55445,6 +55445,26 @@
         <v>1.044</v>
       </c>
     </row>
+    <row r="5502">
+      <c r="A5502" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B5502" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="5503">
+      <c r="A5503" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B5503" t="n">
+        <v>1.039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5503"/>
+  <dimension ref="A1:B5504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55465,6 +55465,16 @@
         <v>1.039</v>
       </c>
     </row>
+    <row r="5504">
+      <c r="A5504" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B5504" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5504"/>
+  <dimension ref="A1:B5505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55475,6 +55475,16 @@
         <v>1.057</v>
       </c>
     </row>
+    <row r="5505">
+      <c r="A5505" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5505" t="n">
+        <v>1.049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5505"/>
+  <dimension ref="A1:B5506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55485,6 +55485,16 @@
         <v>1.049</v>
       </c>
     </row>
+    <row r="5506">
+      <c r="A5506" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5506" t="n">
+        <v>1.051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5506"/>
+  <dimension ref="A1:B5507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55495,6 +55495,16 @@
         <v>1.051</v>
       </c>
     </row>
+    <row r="5507">
+      <c r="A5507" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5507" t="n">
+        <v>1.008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5507"/>
+  <dimension ref="A1:B5508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55505,6 +55505,16 @@
         <v>1.008</v>
       </c>
     </row>
+    <row r="5508">
+      <c r="A5508" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B5508" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5508"/>
+  <dimension ref="A1:B5509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55515,6 +55515,16 @@
         <v>1.056</v>
       </c>
     </row>
+    <row r="5509">
+      <c r="A5509" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B5509" t="n">
+        <v>1.051</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5509"/>
+  <dimension ref="A1:B5510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55525,6 +55525,16 @@
         <v>1.051</v>
       </c>
     </row>
+    <row r="5510">
+      <c r="A5510" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5510" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5510"/>
+  <dimension ref="A1:B5511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55535,6 +55535,16 @@
         <v>1.073</v>
       </c>
     </row>
+    <row r="5511">
+      <c r="A5511" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B5511" t="n">
+        <v>1.055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5511"/>
+  <dimension ref="A1:B5512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55545,6 +55545,16 @@
         <v>1.055</v>
       </c>
     </row>
+    <row r="5512">
+      <c r="A5512" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B5512" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5512"/>
+  <dimension ref="A1:B5513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55555,6 +55555,16 @@
         <v>1.122</v>
       </c>
     </row>
+    <row r="5513">
+      <c r="A5513" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B5513" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5513"/>
+  <dimension ref="A1:B5514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55565,6 +55565,16 @@
         <v>1.033</v>
       </c>
     </row>
+    <row r="5514">
+      <c r="A5514" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B5514" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5514"/>
+  <dimension ref="A1:B5515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55575,6 +55575,16 @@
         <v>1.042</v>
       </c>
     </row>
+    <row r="5515">
+      <c r="A5515" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B5515" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5515"/>
+  <dimension ref="A1:B5516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55585,6 +55585,16 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5516">
+      <c r="A5516" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B5516" t="n">
+        <v>1.058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5516"/>
+  <dimension ref="A1:B5517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55595,6 +55595,16 @@
         <v>1.058</v>
       </c>
     </row>
+    <row r="5517">
+      <c r="A5517" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B5517" t="n">
+        <v>1.063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5517"/>
+  <dimension ref="A1:B5518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55605,6 +55605,16 @@
         <v>1.063</v>
       </c>
     </row>
+    <row r="5518">
+      <c r="A5518" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B5518" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5518"/>
+  <dimension ref="A1:B5519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55615,6 +55615,16 @@
         <v>1.042</v>
       </c>
     </row>
+    <row r="5519">
+      <c r="A5519" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B5519" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5519"/>
+  <dimension ref="A1:B5520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55625,6 +55625,16 @@
         <v>1.018</v>
       </c>
     </row>
+    <row r="5520">
+      <c r="A5520" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B5520" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5520"/>
+  <dimension ref="A1:B5521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55635,6 +55635,16 @@
         <v>1.018</v>
       </c>
     </row>
+    <row r="5521">
+      <c r="A5521" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B5521" t="n">
+        <v>1.026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5521"/>
+  <dimension ref="A1:B5522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55645,6 +55645,16 @@
         <v>1.026</v>
       </c>
     </row>
+    <row r="5522">
+      <c r="A5522" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B5522" t="n">
+        <v>1.049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5522"/>
+  <dimension ref="A1:B5523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55655,6 +55655,16 @@
         <v>1.049</v>
       </c>
     </row>
+    <row r="5523">
+      <c r="A5523" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5523" t="n">
+        <v>1.062</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5523"/>
+  <dimension ref="A1:B5524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55665,6 +55665,16 @@
         <v>1.062</v>
       </c>
     </row>
+    <row r="5524">
+      <c r="A5524" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B5524" t="n">
+        <v>1.149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5524"/>
+  <dimension ref="A1:B5525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55675,6 +55675,16 @@
         <v>1.149</v>
       </c>
     </row>
+    <row r="5525">
+      <c r="A5525" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B5525" t="n">
+        <v>1.021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5525"/>
+  <dimension ref="A1:B5526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55685,6 +55685,16 @@
         <v>1.021</v>
       </c>
     </row>
+    <row r="5526">
+      <c r="A5526" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B5526" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5526"/>
+  <dimension ref="A1:B5527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55695,6 +55695,16 @@
         <v>1.075</v>
       </c>
     </row>
+    <row r="5527">
+      <c r="A5527" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5527" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5527"/>
+  <dimension ref="A1:B5528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55705,6 +55705,16 @@
         <v>1.075</v>
       </c>
     </row>
+    <row r="5528">
+      <c r="A5528" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5528" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5528"/>
+  <dimension ref="A1:B5530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55282,7 +55282,7 @@
         </is>
       </c>
       <c r="B5485" t="n">
-        <v>1.005</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5486">
@@ -55292,7 +55292,7 @@
         </is>
       </c>
       <c r="B5486" t="n">
-        <v>1.003</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5487">
@@ -55302,7 +55302,7 @@
         </is>
       </c>
       <c r="B5487" t="n">
-        <v>1.004</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5488">
@@ -55322,7 +55322,7 @@
         </is>
       </c>
       <c r="B5489" t="n">
-        <v>1.007</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="5490">
@@ -55332,387 +55332,407 @@
         </is>
       </c>
       <c r="B5490" t="n">
-        <v>1.008</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5491">
       <c r="A5491" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B5491" t="n">
-        <v>1.013</v>
+        <v>1.017</v>
       </c>
     </row>
     <row r="5492">
       <c r="A5492" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B5492" t="n">
-        <v>1.014</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="5493">
       <c r="A5493" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B5493" t="n">
-        <v>1.026</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="5494">
       <c r="A5494" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B5494" t="n">
-        <v>1.021</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5495">
       <c r="A5495" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5495" t="n">
-        <v>1.021</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="5496">
       <c r="A5496" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B5496" t="n">
-        <v>1.021</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5497">
       <c r="A5497" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B5497" t="n">
-        <v>1.051</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="5498">
       <c r="A5498" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B5498" t="n">
-        <v>1.122</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5499">
       <c r="A5499" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B5499" t="n">
-        <v>1.034</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="5500">
       <c r="A5500" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B5500" t="n">
-        <v>1.04</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5501">
       <c r="A5501" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B5501" t="n">
-        <v>1.044</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5502">
       <c r="A5502" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B5502" t="n">
-        <v>1.024</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5503">
       <c r="A5503" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B5503" t="n">
-        <v>1.039</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="5504">
       <c r="A5504" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B5504" t="n">
-        <v>1.057</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5505">
       <c r="A5505" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B5505" t="n">
-        <v>1.049</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="5506">
       <c r="A5506" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B5506" t="n">
-        <v>1.051</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5507">
       <c r="A5507" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B5507" t="n">
-        <v>1.008</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5508">
       <c r="A5508" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B5508" t="n">
-        <v>1.056</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5509">
       <c r="A5509" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B5509" t="n">
-        <v>1.051</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5510">
       <c r="A5510" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B5510" t="n">
-        <v>1.073</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="5511">
       <c r="A5511" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B5511" t="n">
-        <v>1.055</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="5512">
       <c r="A5512" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B5512" t="n">
-        <v>1.122</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5513">
       <c r="A5513" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B5513" t="n">
-        <v>1.033</v>
+        <v>1.023</v>
       </c>
     </row>
     <row r="5514">
       <c r="A5514" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B5514" t="n">
-        <v>1.042</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5515">
       <c r="A5515" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B5515" t="n">
-        <v>0.998</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5516">
       <c r="A5516" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B5516" t="n">
-        <v>1.058</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5517">
       <c r="A5517" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B5517" t="n">
-        <v>1.063</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5518">
       <c r="A5518" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B5518" t="n">
-        <v>1.042</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5519">
       <c r="A5519" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B5519" t="n">
-        <v>1.018</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5520">
       <c r="A5520" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B5520" t="n">
-        <v>1.018</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="5521">
       <c r="A5521" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B5521" t="n">
-        <v>1.026</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="5522">
       <c r="A5522" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B5522" t="n">
-        <v>1.049</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="5523">
       <c r="A5523" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B5523" t="n">
-        <v>1.062</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5524">
       <c r="A5524" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B5524" t="n">
-        <v>1.149</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="5525">
       <c r="A5525" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B5525" t="n">
-        <v>1.021</v>
+        <v>1.039</v>
       </c>
     </row>
     <row r="5526">
       <c r="A5526" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B5526" t="n">
-        <v>1.075</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5527">
       <c r="A5527" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B5527" t="n">
-        <v>1.075</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="5528">
       <c r="A5528" t="inlineStr">
         <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5528" t="n">
+        <v>1.015</v>
+      </c>
+    </row>
+    <row r="5529">
+      <c r="A5529" t="inlineStr">
+        <is>
           <t>2025-10-05</t>
         </is>
       </c>
-      <c r="B5528" t="n">
-        <v>1.074</v>
+      <c r="B5529" t="n">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="5530">
+      <c r="A5530" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5530" t="n">
+        <v>1.018</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5530"/>
+  <dimension ref="A1:B5531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55735,6 +55735,16 @@
         <v>1.018</v>
       </c>
     </row>
+    <row r="5531">
+      <c r="A5531" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B5531" t="n">
+        <v>1.043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5531"/>
+  <dimension ref="A1:B5532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55745,6 +55745,16 @@
         <v>1.043</v>
       </c>
     </row>
+    <row r="5532">
+      <c r="A5532" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B5532" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5532"/>
+  <dimension ref="A1:B5533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55755,6 +55755,16 @@
         <v>1.018</v>
       </c>
     </row>
+    <row r="5533">
+      <c r="A5533" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B5533" t="n">
+        <v>1.023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5533"/>
+  <dimension ref="A1:B5534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55765,6 +55765,16 @@
         <v>1.023</v>
       </c>
     </row>
+    <row r="5534">
+      <c r="A5534" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B5534" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5534"/>
+  <dimension ref="A1:B5535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55775,6 +55775,16 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="5535">
+      <c r="A5535" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B5535" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5535"/>
+  <dimension ref="A1:B5536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55785,6 +55785,16 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5536">
+      <c r="A5536" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B5536" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5536"/>
+  <dimension ref="A1:B5537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55795,6 +55795,16 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="5537">
+      <c r="A5537" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B5537" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5537"/>
+  <dimension ref="A1:B5538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55805,6 +55805,16 @@
         <v>1.003</v>
       </c>
     </row>
+    <row r="5538">
+      <c r="A5538" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B5538" t="n">
+        <v>1.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5538"/>
+  <dimension ref="A1:B5539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55815,6 +55815,16 @@
         <v>1.012</v>
       </c>
     </row>
+    <row r="5539">
+      <c r="A5539" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B5539" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5539"/>
+  <dimension ref="A1:B5540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55825,6 +55825,16 @@
         <v>1.042</v>
       </c>
     </row>
+    <row r="5540">
+      <c r="A5540" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B5540" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5540"/>
+  <dimension ref="A1:B5541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55835,6 +55835,16 @@
         <v>0.996</v>
       </c>
     </row>
+    <row r="5541">
+      <c r="A5541" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B5541" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5541"/>
+  <dimension ref="A1:B5542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55845,6 +55845,16 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="5542">
+      <c r="A5542" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B5542" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5542"/>
+  <dimension ref="A1:B5543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55855,6 +55855,16 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="5543">
+      <c r="A5543" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B5543" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5543"/>
+  <dimension ref="A1:B5544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55865,6 +55865,16 @@
         <v>1.001</v>
       </c>
     </row>
+    <row r="5544">
+      <c r="A5544" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5544" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5544"/>
+  <dimension ref="A1:B5545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55875,6 +55875,16 @@
         <v>1.005</v>
       </c>
     </row>
+    <row r="5545">
+      <c r="A5545" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5545" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5545"/>
+  <dimension ref="A1:B5546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55885,6 +55885,16 @@
         <v>1.009</v>
       </c>
     </row>
+    <row r="5546">
+      <c r="A5546" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B5546" t="n">
+        <v>1.023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5546"/>
+  <dimension ref="A1:B5547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55895,6 +55895,16 @@
         <v>1.023</v>
       </c>
     </row>
+    <row r="5547">
+      <c r="A5547" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B5547" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5547"/>
+  <dimension ref="A1:B5548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55905,6 +55905,16 @@
         <v>1.01</v>
       </c>
     </row>
+    <row r="5548">
+      <c r="A5548" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B5548" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5548"/>
+  <dimension ref="A1:B5549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55915,6 +55915,16 @@
         <v>1.007</v>
       </c>
     </row>
+    <row r="5549">
+      <c r="A5549" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B5549" t="n">
+        <v>1.007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5549"/>
+  <dimension ref="A1:B5550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55925,6 +55925,16 @@
         <v>1.007</v>
       </c>
     </row>
+    <row r="5550">
+      <c r="A5550" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5550" t="n">
+        <v>1.014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5550"/>
+  <dimension ref="A1:B5551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55935,6 +55935,16 @@
         <v>1.014</v>
       </c>
     </row>
+    <row r="5551">
+      <c r="A5551" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5551" t="n">
+        <v>1.016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5551"/>
+  <dimension ref="A1:B5552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55945,6 +55945,16 @@
         <v>1.016</v>
       </c>
     </row>
+    <row r="5552">
+      <c r="A5552" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5552" t="n">
+        <v>1.027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5552"/>
+  <dimension ref="A1:B5553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55955,6 +55955,16 @@
         <v>1.027</v>
       </c>
     </row>
+    <row r="5553">
+      <c r="A5553" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5553" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5553"/>
+  <dimension ref="A1:B5554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55965,6 +55965,16 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="5554">
+      <c r="A5554" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B5554" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5554"/>
+  <dimension ref="A1:B5555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55975,6 +55975,16 @@
         <v>1.017</v>
       </c>
     </row>
+    <row r="5555">
+      <c r="A5555" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B5555" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5555"/>
+  <dimension ref="A1:B5556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55985,6 +55985,16 @@
         <v>1.005</v>
       </c>
     </row>
+    <row r="5556">
+      <c r="A5556" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B5556" t="n">
+        <v>1.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5556"/>
+  <dimension ref="A1:B5557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55995,6 +55995,16 @@
         <v>1.012</v>
       </c>
     </row>
+    <row r="5557">
+      <c r="A5557" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B5557" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5557"/>
+  <dimension ref="A1:B5558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56005,6 +56005,16 @@
         <v>1.003</v>
       </c>
     </row>
+    <row r="5558">
+      <c r="A5558" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B5558" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5558"/>
+  <dimension ref="A1:B5559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56015,6 +56015,16 @@
         <v>1.006</v>
       </c>
     </row>
+    <row r="5559">
+      <c r="A5559" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B5559" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5559"/>
+  <dimension ref="A1:B5560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56025,6 +56025,16 @@
         <v>0.995</v>
       </c>
     </row>
+    <row r="5560">
+      <c r="A5560" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5560" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5560"/>
+  <dimension ref="A1:B5561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56035,6 +56035,16 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5561">
+      <c r="A5561" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B5561" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5561"/>
+  <dimension ref="A1:B5570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56045,6 +56045,96 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5562">
+      <c r="A5562" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B5562" t="n">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="5563">
+      <c r="A5563" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B5563" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="5564">
+      <c r="A5564" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B5564" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="5565">
+      <c r="A5565" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5565" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="5566">
+      <c r="A5566" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B5566" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="5567">
+      <c r="A5567" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B5567" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="5568">
+      <c r="A5568" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B5568" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5569">
+      <c r="A5569" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5569" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="5570">
+      <c r="A5570" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B5570" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5570"/>
+  <dimension ref="A1:B5579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56135,6 +56135,96 @@
         <v>1.001</v>
       </c>
     </row>
+    <row r="5571">
+      <c r="A5571" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B5571" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5572">
+      <c r="A5572" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B5572" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="5573">
+      <c r="A5573" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B5573" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="5574">
+      <c r="A5574" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B5574" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5575">
+      <c r="A5575" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B5575" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="5576">
+      <c r="A5576" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B5576" t="n">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="5577">
+      <c r="A5577" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B5577" t="n">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="5578">
+      <c r="A5578" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B5578" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
+    <row r="5579">
+      <c r="A5579" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B5579" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5579"/>
+  <dimension ref="A1:B5581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56225,6 +56225,26 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5580">
+      <c r="A5580" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B5580" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="5581">
+      <c r="A5581" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B5581" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5581"/>
+  <dimension ref="A1:B5584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56245,6 +56245,36 @@
         <v>1.018</v>
       </c>
     </row>
+    <row r="5582">
+      <c r="A5582" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B5582" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5583">
+      <c r="A5583" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B5583" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5584">
+      <c r="A5584" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B5584" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5584"/>
+  <dimension ref="A1:B5585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56275,6 +56275,16 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="5585">
+      <c r="A5585" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5585" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5585"/>
+  <dimension ref="A1:B5587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56285,6 +56285,26 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5586">
+      <c r="A5586" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B5586" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5587">
+      <c r="A5587" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B5587" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5587"/>
+  <dimension ref="A1:B5588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56305,6 +56305,16 @@
         <v>0.993</v>
       </c>
     </row>
+    <row r="5588">
+      <c r="A5588" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B5588" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5588"/>
+  <dimension ref="A1:B5589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56315,6 +56315,16 @@
         <v>1.005</v>
       </c>
     </row>
+    <row r="5589">
+      <c r="A5589" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B5589" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5589"/>
+  <dimension ref="A1:B5593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56325,6 +56325,46 @@
         <v>1.001</v>
       </c>
     </row>
+    <row r="5590">
+      <c r="A5590" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B5590" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="5591">
+      <c r="A5591" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B5591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5592">
+      <c r="A5592" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B5592" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5593">
+      <c r="A5593" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B5593" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5593"/>
+  <dimension ref="A1:B5594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56365,6 +56365,16 @@
         <v>0.997</v>
       </c>
     </row>
+    <row r="5594">
+      <c r="A5594" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5594" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5594"/>
+  <dimension ref="A1:B5596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56375,6 +56375,26 @@
         <v>1.003</v>
       </c>
     </row>
+    <row r="5595">
+      <c r="A5595" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B5595" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="5596">
+      <c r="A5596" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B5596" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5596"/>
+  <dimension ref="A1:B5599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56395,6 +56395,36 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5597">
+      <c r="A5597" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B5597" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="5598">
+      <c r="A5598" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B5598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5599">
+      <c r="A5599" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B5599" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5599"/>
+  <dimension ref="A1:B5601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56425,6 +56425,26 @@
         <v>0.998</v>
       </c>
     </row>
+    <row r="5600">
+      <c r="A5600" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5600" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="5601">
+      <c r="A5601" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5601" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5601"/>
+  <dimension ref="A1:B5602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56445,6 +56445,16 @@
         <v>0.997</v>
       </c>
     </row>
+    <row r="5602">
+      <c r="A5602" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5602" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5602"/>
+  <dimension ref="A1:B5603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56455,6 +56455,16 @@
         <v>0.994</v>
       </c>
     </row>
+    <row r="5603">
+      <c r="A5603" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B5603" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5603"/>
+  <dimension ref="A1:B5606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56465,6 +56465,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5604">
+      <c r="A5604" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B5604" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5605">
+      <c r="A5605" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B5605" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="5606">
+      <c r="A5606" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B5606" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5606"/>
+  <dimension ref="A1:B5610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56495,6 +56495,46 @@
         <v>1.002</v>
       </c>
     </row>
+    <row r="5607">
+      <c r="A5607" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B5607" t="n">
+        <v>1.001</v>
+      </c>
+    </row>
+    <row r="5608">
+      <c r="A5608" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B5608" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="5609">
+      <c r="A5609" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B5609" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="5610">
+      <c r="A5610" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B5610" t="n">
+        <v>1.002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_sopr.xlsx
+++ b/data_cripto/btc_sopr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5610"/>
+  <dimension ref="A1:B5617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56535,6 +56535,76 @@
         <v>1.002</v>
       </c>
     </row>
+    <row r="5611">
+      <c r="A5611" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B5611" t="n">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="5612">
+      <c r="A5612" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B5612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5613">
+      <c r="A5613" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B5613" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="5614">
+      <c r="A5614" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B5614" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5615">
+      <c r="A5615" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B5615" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="5616">
+      <c r="A5616" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B5616" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="5617">
+      <c r="A5617" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B5617" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
